--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/15/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/15/seed1/result_data_KNN.xlsx
@@ -505,7 +505,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.476000000000001</v>
+        <v>-7.676</v>
       </c>
       <c r="E4" t="n">
         <v>17.51</v>
@@ -539,7 +539,7 @@
         <v>-15.25</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.065999999999999</v>
+        <v>-8.169</v>
       </c>
       <c r="E6" t="n">
         <v>16.12</v>
@@ -556,10 +556,10 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.85</v>
+        <v>-7.585000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>16.712</v>
+        <v>16.852</v>
       </c>
     </row>
     <row r="8">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.77</v>
+        <v>17.638</v>
       </c>
     </row>
     <row r="13">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>15.88</v>
+        <v>15.955</v>
       </c>
     </row>
     <row r="16">
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.562000000000001</v>
+        <v>-8.626000000000001</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -777,10 +777,10 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.982000000000001</v>
+        <v>-7.808000000000002</v>
       </c>
       <c r="E20" t="n">
-        <v>16.354</v>
+        <v>16.457</v>
       </c>
     </row>
     <row r="21">
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>16.678</v>
+        <v>16.523</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>-6.8</v>
       </c>
       <c r="E22" t="n">
-        <v>16.678</v>
+        <v>16.506</v>
       </c>
     </row>
     <row r="23">
@@ -831,7 +831,7 @@
         <v>-8.59</v>
       </c>
       <c r="E23" t="n">
-        <v>16.602</v>
+        <v>16.434</v>
       </c>
     </row>
     <row r="24">
@@ -913,7 +913,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.274000000000001</v>
+        <v>-8.055</v>
       </c>
       <c r="E28" t="n">
         <v>16.42</v>
@@ -930,10 +930,10 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.874</v>
+        <v>-7.56</v>
       </c>
       <c r="E29" t="n">
-        <v>16.476</v>
+        <v>16.689</v>
       </c>
     </row>
     <row r="30">
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.876</v>
+        <v>-7.98</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1018,7 +1018,7 @@
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>16.6</v>
+        <v>16.846</v>
       </c>
     </row>
     <row r="35">
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.81</v>
+        <v>-7.883999999999999</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.582</v>
+        <v>16.539</v>
       </c>
     </row>
     <row r="43">
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.376</v>
+        <v>16.951</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.2</v>
+        <v>16.518</v>
       </c>
     </row>
     <row r="45">
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.472</v>
+        <v>16.774</v>
       </c>
     </row>
     <row r="46">
@@ -1219,10 +1219,10 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.75</v>
+        <v>-8.022</v>
       </c>
       <c r="E46" t="n">
-        <v>16.92</v>
+        <v>16.968</v>
       </c>
     </row>
     <row r="47">
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.566</v>
+        <v>16.438</v>
       </c>
     </row>
     <row r="51">
@@ -1304,10 +1304,10 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.507999999999999</v>
+        <v>-8.241000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>16.886</v>
+        <v>16.489</v>
       </c>
     </row>
     <row r="52">
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.828</v>
+        <v>-7.87</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-7.895999999999999</v>
+        <v>-8.06</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1440,7 +1440,7 @@
         <v>-14.55</v>
       </c>
       <c r="D59" t="n">
-        <v>-8.016</v>
+        <v>-8.123999999999999</v>
       </c>
       <c r="E59" t="n">
         <v>16.47</v>
@@ -1491,7 +1491,7 @@
         <v>-14.53</v>
       </c>
       <c r="D62" t="n">
-        <v>-7.842000000000001</v>
+        <v>-7.946000000000001</v>
       </c>
       <c r="E62" t="n">
         <v>16.65</v>
@@ -1559,10 +1559,10 @@
         <v>-10.51</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.545999999999999</v>
+        <v>-7.419</v>
       </c>
       <c r="E66" t="n">
-        <v>16.876</v>
+        <v>17.325</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>-6.43</v>
       </c>
       <c r="E67" t="n">
-        <v>16.85</v>
+        <v>17.241</v>
       </c>
     </row>
     <row r="68">
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.581999999999999</v>
+        <v>-7.789</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1695,7 +1695,7 @@
         <v>-12.97</v>
       </c>
       <c r="D74" t="n">
-        <v>-8.156000000000001</v>
+        <v>-7.904999999999998</v>
       </c>
       <c r="E74" t="n">
         <v>16.1</v>
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>17.082</v>
+        <v>16.957</v>
       </c>
     </row>
     <row r="80">
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.688</v>
+        <v>16.606</v>
       </c>
     </row>
     <row r="85">
@@ -2001,10 +2001,10 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-7.596000000000001</v>
+        <v>-7.676</v>
       </c>
       <c r="E92" t="n">
-        <v>16.328</v>
+        <v>16.832</v>
       </c>
     </row>
     <row r="93">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.644</v>
+        <v>16.787</v>
       </c>
     </row>
     <row r="98">
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.065999999999999</v>
+        <v>-8.295</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
